--- a/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
+++ b/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RK_B_IBK\Kelompok Developer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14FD3D-46FD-4492-AB42-5A8C7928C5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>Pertanyaan</t>
+  </si>
+  <si>
+    <t>Sistem pemesanan online yang telah dijalankan selama ini bagaimana? selain gofood grabfood</t>
+  </si>
+  <si>
+    <t>Apakah ada ketentuan khusus untuk melakukan pemesanan?</t>
+  </si>
+  <si>
+    <t>Setelah pesanan masuk melalui WA, lalu bagaimana?</t>
+  </si>
+  <si>
+    <t>Apa kendala yang dialami dengan pemesanan melalui WA?</t>
+  </si>
+  <si>
+    <t>Seberapa banyak customer yang melakukan pemesanan online?</t>
+  </si>
+  <si>
+    <t>Apakah ada pembatasan daerah pengiriman?</t>
+  </si>
+  <si>
+    <t>Apakah ada batas minimun pesanan yang harus diantarkan oleh driver?</t>
+  </si>
+  <si>
+    <t>Siapa yang biasanya melakukan pengiriman?</t>
+  </si>
+  <si>
+    <t>Apakah ada kendala dalam menemukan lokasi pemesan?</t>
+  </si>
+  <si>
+    <t>Bagaimana mengenai pembayaran pesanan selama ini?</t>
+  </si>
+  <si>
+    <t>Apakah ada rencana untuk mengubah sistem pembayaran?</t>
+  </si>
+  <si>
+    <t>Apakah membutuhkan workshop pelatihan untuk melakukan simulasi pemesanan melalui aplikasi kedepannya?</t>
+  </si>
+  <si>
+    <t>Pertanyaan tambahan bisa ditambahkan saat wawancara dan dicatat</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Siapa yang memegang akun WA?</t>
+  </si>
+  <si>
+    <t>Apa yang anda lakukan sebagai kasir?</t>
+  </si>
+  <si>
+    <t>Untuk pesanan offline sudah terdapat aplikasi kasir atau masih manual pencatatannya?</t>
+  </si>
+  <si>
+    <t>Untuk pesanan online apa saja yang perlu Anda lakukan biasanya?</t>
+  </si>
+  <si>
+    <t>Bagaimana pencatatan pesanan online?</t>
+  </si>
+  <si>
+    <t>Apakah selama ini ada keluhan dari pelanggan online? Sebutkan?</t>
+  </si>
+  <si>
+    <t>Bagaimana pendapat Anda jika akan diwujudkan aplikasi untuk mengelola pesanan online?</t>
+  </si>
+  <si>
+    <t>Ini ada ide sementara aplikasi: pelanggan dapat melihat menu dan memesan sesuai menu yang ada dan tersedia. staff yang mengelola pesanan online mengupdate info menu yang ada, serta menerima orderan untuk nantinya dimasak dan diantar. Pembayaran melalui dompet digital akan langsung tercatat. Pembayaran cash akan tercatat di dompet driver, saat disetor akan tercatat.</t>
+  </si>
+  <si>
+    <t>Apakah menurut Anda jika aplikasi itu diwujudkan akan membantu pihak IBK?</t>
+  </si>
+  <si>
+    <t>Apakah menurut Anda jika aplikasi itu diwujudkan akan membantu customer?</t>
+  </si>
+  <si>
+    <t>Dengan aplikasi demikian, apakah menurut Anda tugas Anda sebagai kasir masih terlalu berat?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +118,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +153,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +516,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1898F6-D0DF-4D7E-9597-879F4AEA637C}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
+++ b/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RK_B_IBK\Kelompok Developer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\Kelompok Developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14FD3D-46FD-4492-AB42-5A8C7928C5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8F5A9-5FD8-4CB0-B94F-3F7B242DD2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,22 +220,22 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,16 +520,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -641,8 +641,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -657,16 +657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1898F6-D0DF-4D7E-9597-879F4AEA637C}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -698,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -722,13 +722,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -736,15 +736,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -760,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>13</v>

--- a/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
+++ b/Kelompok Developer/Master Pertanyaan Wawancara.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\Kelompok Developer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\RK_B_IBK\Kelompok Developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8F5A9-5FD8-4CB0-B94F-3F7B242DD2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D18142-54B0-4F41-816E-0334A7472AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Manager" sheetId="1" r:id="rId1"/>
+    <sheet name="Kasir" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -519,17 +519,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -657,16 +657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1898F6-D0DF-4D7E-9597-879F4AEA637C}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -698,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -722,13 +722,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -760,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
